--- a/CodeGS/CapaDiseño/CapaDiseño/bin/Debug/ReporteActividades.xlsx
+++ b/CodeGS/CapaDiseño/CapaDiseño/bin/Debug/ReporteActividades.xlsx
@@ -31,22 +31,16 @@
     <x:t>Cantidad de Inscriptos</x:t>
   </x:si>
   <x:si>
-    <x:t>Bici</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salon Azul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>perez, Juan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:00:00</x:t>
+    <x:t>crossfit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pbf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lopez, juan</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -397,7 +391,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E17"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -434,262 +428,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E4" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E5" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E6" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E7" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E8" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E9" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E10" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E11" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E12" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E13" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E14" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E15" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E16" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E17" s="0">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
